--- a/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,28%</t>
+          <t>-29,56%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 9,6</t>
+          <t>-12,72; 8,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 12,18</t>
+          <t>-7,4; 12,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 9,59</t>
+          <t>-14,03; 11,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 16,21</t>
+          <t>-25,85; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 17,19</t>
+          <t>-18,19; 14,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 59,78</t>
+          <t>-24,2; 65,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 36,93</t>
+          <t>-36,08; 51,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,53; 83,32</t>
+          <t>-62,47; 10,05</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,63</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,04%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>15,06%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 16,1</t>
+          <t>-3,84; 18,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 16,32</t>
+          <t>-5,81; 14,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 21,39</t>
+          <t>-4,65; 15,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 10,74</t>
+          <t>-7,14; 13,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 35,78</t>
+          <t>-7,44; 47,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 107,29</t>
+          <t>-21,2; 85,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 118,53</t>
+          <t>-17,09; 89,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 77,28</t>
+          <t>-30,0; 90,49</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-19,25</t>
+          <t>-38,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,99</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,62%</t>
+          <t>-47,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,11%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,14%</t>
+          <t>-32,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-37,9; -1,83</t>
+          <t>-60,56; -12,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 28,86</t>
+          <t>-20,29; 23,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 12,36</t>
+          <t>-18,98; 15,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 14,43</t>
+          <t>-51,92; 17,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,43; -3,18</t>
+          <t>-68,03; -18,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 247,09</t>
+          <t>-64,84; 307,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,89; 109,2</t>
+          <t>-96,55; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-66,63; 82,84</t>
+          <t>-89,57; 265,63</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>-15,74%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,7</t>
+          <t>-10,55; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 12,57</t>
+          <t>-3,61; 10,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,9</t>
+          <t>-4,95; 10,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,47</t>
+          <t>-13,83; 3,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 12,5</t>
+          <t>-16,17; 10,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 66,12</t>
+          <t>-13,55; 54,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 46,44</t>
+          <t>-16,23; 50,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 45,8</t>
+          <t>-42,91; 19,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28A_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,42</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-8,07</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-5,25%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,7%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-29,56%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.925776211796494</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.807362115302341</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.982438898476852</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-7.765257831660922</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.04495420686030355</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.06862474106656506</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06254169879226673</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2819158015260217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,72; 8,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 12,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,03; 11,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,85; 1,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-18,19; 14,64</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-24,2; 65,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-36,08; 51,79</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-62,47; 10,05</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-12.89860449635726</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.883288022262436</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-12.94424958647988</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-25.46617687275242</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1834011212957181</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.250472771692949</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3115123173155877</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6172177639584618</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.23496038220696</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.40158267216102</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.42301709094979</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.713511555289637</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1329346479594485</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.5430816718319013</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4972884710267503</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1547367633636084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,82%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>24,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 18,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 14,12</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,65; 15,62</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,14; 13,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 47,53</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; 85,45</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-17,09; 89,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-30,0; 90,49</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.299064576224823</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.391033924955816</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.669515779202177</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.328712138568406</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1499860013405421</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.316168333694359</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3107658146477217</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1156873803515042</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-38,55</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-10,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-47,61%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-32,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.033404632307714</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.826735738034047</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.118555536402392</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.78017354977011</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.0920287049370601</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.110003912526565</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.104349248349621</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3139700355552248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-60,56; -12,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,29; 23,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-18,98; 15,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-51,92; 17,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-68,03; -18,43</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-64,84; 307,78</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-96,55; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-89,57; 265,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>19.22962369743295</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.01511514350877</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.95972901788724</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>12.23365368928312</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.450427574911581</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.183639584007724</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9734890131278282</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8792763451821003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,83</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,01%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-15,74%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-38.55441350294203</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.521243285947471</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.081483113991912</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.407087762371639</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.476050707472555</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.07430147960268965</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1711113901570681</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2405073528499765</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,55; 5,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 10,5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 10,39</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,83; 3,45</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-16,17; 10,35</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-13,55; 54,68</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-16,23; 50,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-42,91; 19,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-60.56214859329725</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-19.85650546001088</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.93093242798329</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-52.23073330014484</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.680340342851292</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6227942420615421</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9080235394242192</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8969458686303768</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-12.67955478734743</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>27.03143672471293</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.68560476235712</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>19.74589665325023</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-0.1842545945222691</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>3.713783177051513</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>9.84008650461009</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.710736039106344</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-2.475105214508333</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.785368877521872</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.644162746477065</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-3.575981789540844</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.04108346286800546</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1633030933878369</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1740851467092848</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1441960496864785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-9.847322126584578</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.986888201048766</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.908913729013815</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-14.86025288101245</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.1541646558947879</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1122381318498832</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1268853440191818</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4350131530493982</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.571944084035009</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.64259404165741</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.53298080028044</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.902792330118713</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1036255586207417</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5521795953209181</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5457333021189903</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2103403048019309</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
